--- a/tecnica_analise/GENESIS-MATRIZ-2022.xlsx
+++ b/tecnica_analise/GENESIS-MATRIZ-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fevereiro" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="marco" sheetId="2" r:id="rId3"/>
     <sheet name="marcoInvest" sheetId="4" r:id="rId4"/>
     <sheet name="abril" sheetId="5" r:id="rId5"/>
-    <sheet name="maio" sheetId="6" r:id="rId6"/>
+    <sheet name="abrilInvest" sheetId="7" r:id="rId6"/>
+    <sheet name="maio" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="170">
   <si>
     <t>DATA</t>
   </si>
@@ -664,9 +665,6 @@
     </r>
   </si>
   <si>
-    <t>PARTICK THISTLE vs INVERNESS</t>
-  </si>
-  <si>
     <t>SCOTLAND - CHAMPIONSHIP</t>
   </si>
   <si>
@@ -679,9 +677,6 @@
     <t>PARMA vs CITTADELLA</t>
   </si>
   <si>
-    <t>INVERNESS vs ARBROATH</t>
-  </si>
-  <si>
     <t>ROCHDALE vs BARROW</t>
   </si>
   <si>
@@ -700,15 +695,9 @@
     <t>ASCOLI vs PISA</t>
   </si>
   <si>
-    <t>DUNFERMLINE vs GREENOCK MORTON</t>
-  </si>
-  <si>
     <t>PISA vs CITTADELLA</t>
   </si>
   <si>
-    <t>ARBROATH vs RAITH ROVERS</t>
-  </si>
-  <si>
     <t>CARLISLE UTD vs BRISTOL ROVERS</t>
   </si>
   <si>
@@ -814,9 +803,6 @@
     <t>void</t>
   </si>
   <si>
-    <t>PIACENZA vs ALBINOLEFFE</t>
-  </si>
-  <si>
     <t> DEPORTIVO MAIPU vs D. DE BELGRANO</t>
   </si>
   <si>
@@ -838,9 +824,6 @@
     <t>JAPAN - J1 LEAGUE</t>
   </si>
   <si>
-    <t>AYR UTD vs INVERNESS</t>
-  </si>
-  <si>
     <t>BOURG-EN-BRESSE vs BOULOGNE</t>
   </si>
   <si>
@@ -874,9 +857,6 @@
     <t> D. SANTA MARINA vs E. RIO CUARTO</t>
   </si>
   <si>
-    <t>VILLEFRANCHE vs LE MANS</t>
-  </si>
-  <si>
     <t>PARTICK THISTLE vs RAITH ROVERS</t>
   </si>
   <si>
@@ -895,12 +875,6 @@
     <t> VICENZA vs PERUGIA</t>
   </si>
   <si>
-    <t> HAMILTON vs RAITH ROVERS</t>
-  </si>
-  <si>
-    <t>ALBINOLEFFE vs TRENTO</t>
-  </si>
-  <si>
     <t>PERUGIA vs PARMA</t>
   </si>
   <si>
@@ -1037,6 +1011,63 @@
   </si>
   <si>
     <t>S. ITALIANO vs D. ESPANOL</t>
+  </si>
+  <si>
+    <t>2--1</t>
+  </si>
+  <si>
+    <t>3--1</t>
+  </si>
+  <si>
+    <t>5--0</t>
+  </si>
+  <si>
+    <t>2--2</t>
+  </si>
+  <si>
+    <t>0--2</t>
+  </si>
+  <si>
+    <t>1--2</t>
+  </si>
+  <si>
+    <t>0--3</t>
+  </si>
+  <si>
+    <t>1--3</t>
+  </si>
+  <si>
+    <t>PIACENZA vs ALBINOLEFFE--NOTINVEST</t>
+  </si>
+  <si>
+    <t>VILLEFRANCHE vs LE MANS-NOTINVEST</t>
+  </si>
+  <si>
+    <t>ALBINOLEFFE vs TRENTO-NOTINVEST</t>
+  </si>
+  <si>
+    <t>PARTICK THISTLE vs INVERNESS-NOTINVEST</t>
+  </si>
+  <si>
+    <t>INVERNESS vs ARBROATH-NOTINVEST</t>
+  </si>
+  <si>
+    <t>DUNFERMLINE vs GREENOCK MORTON-NOTINVEST</t>
+  </si>
+  <si>
+    <t>ARBROATH vs RAITH ROVERS-NOTINVEST</t>
+  </si>
+  <si>
+    <t> HAMILTON vs RAITH ROVERS-NOTINVEST</t>
+  </si>
+  <si>
+    <t>AYR UTD vs INVERNESS-NOTINVEST</t>
+  </si>
+  <si>
+    <t>1--4</t>
+  </si>
+  <si>
+    <t>1--6</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,6 +1240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1222,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1341,11 +1378,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1363,6 +1403,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2232,25 +2302,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>21</v>
@@ -2278,10 +2348,10 @@
         <v>24</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="H2" s="18">
         <f>C2*D$25</f>
@@ -2317,10 +2387,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="18">
         <f>C3*D$25</f>
@@ -2507,17 +2577,17 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9">
         <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2530,7 +2600,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="27">
@@ -2557,7 +2627,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="30">
@@ -2584,7 +2654,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9">
@@ -2611,7 +2681,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9">
@@ -2638,7 +2708,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9">
@@ -2665,7 +2735,7 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="30">
@@ -2692,7 +2762,7 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="30">
@@ -2742,7 +2812,7 @@
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="31">
@@ -2768,7 +2838,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="18">
@@ -2795,7 +2865,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="18">
@@ -2822,7 +2892,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="32">
@@ -2849,7 +2919,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="18">
@@ -2876,7 +2946,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
@@ -3277,29 +3347,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F15:G45">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I10">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3312,14 +3382,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="5" bestFit="1" customWidth="1"/>
@@ -3408,7 +3478,7 @@
         <v>44624</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="C2" s="9">
         <v>2.3199999999999998</v>
@@ -3459,14 +3529,14 @@
         <v>2.06</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9">
         <v>20</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
@@ -3480,7 +3550,7 @@
         <v>44626</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9">
         <v>2.91</v>
@@ -3531,7 +3601,7 @@
         <v>2.1</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="9">
@@ -3552,7 +3622,7 @@
         <v>44631</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9">
         <v>2.35</v>
@@ -3603,7 +3673,7 @@
         <v>1.74</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9">
@@ -3624,7 +3694,7 @@
         <v>44632</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C5" s="9">
         <v>2.46</v>
@@ -3682,7 +3752,7 @@
         <v>17</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>30</v>
@@ -3696,7 +3766,7 @@
         <v>44632</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9">
         <v>2.0499999999999998</v>
@@ -3747,7 +3817,7 @@
         <v>1.89</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9">
@@ -3757,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X6" s="9">
         <v>0</v>
@@ -3767,8 +3837,8 @@
       <c r="A7" s="7">
         <v>44633</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>42</v>
+      <c r="B7" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="9">
         <v>2.66</v>
@@ -3839,7 +3909,7 @@
         <v>44633</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9">
         <v>2.06</v>
@@ -3890,16 +3960,16 @@
         <v>2.42</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U8" s="9">
         <v>23</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9">
         <v>6</v>
@@ -3910,7 +3980,7 @@
         <v>44635</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9">
         <v>3.4</v>
@@ -3970,7 +4040,7 @@
         <v>20</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X9" s="9">
         <v>1</v>
@@ -3981,7 +4051,7 @@
         <v>44636</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9">
         <v>3.03</v>
@@ -4041,7 +4111,7 @@
         <v>28</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X10" s="9">
         <v>2</v>
@@ -4052,7 +4122,7 @@
         <v>44638</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C11" s="9">
         <v>2.41</v>
@@ -4103,13 +4173,13 @@
         <v>1.93</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U11" s="9">
         <v>16</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>31</v>
@@ -4123,7 +4193,7 @@
         <v>44640</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <v>2.0499999999999998</v>
@@ -4174,7 +4244,7 @@
         <v>2.02</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U12" s="9">
         <v>23</v>
@@ -4194,7 +4264,7 @@
         <v>44646</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="C13" s="9">
         <v>2.1800000000000002</v>
@@ -4245,16 +4315,16 @@
         <v>2.08</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U13" s="9">
         <v>24</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X13" s="9">
         <v>6</v>
@@ -4265,7 +4335,7 @@
         <v>44646</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="9">
         <v>2.69</v>
@@ -4336,7 +4406,7 @@
         <v>44646</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="9">
         <v>2.09</v>
@@ -4396,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X15" s="9">
         <v>2</v>
@@ -4409,10 +4479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,25 +4506,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>21</v>
@@ -4467,70 +4537,70 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="15">
+        <v>37</v>
+      </c>
+      <c r="C2" s="21">
         <v>2</v>
       </c>
       <c r="D2" s="16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="H2" s="18">
-        <f>C2*D$26</f>
-        <v>29727.18</v>
+        <v>0</v>
       </c>
       <c r="I2" s="18">
-        <f>IF(G2="halfred",-(D$26/2),H2-D$26)</f>
-        <v>14863.59</v>
+        <v>0</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>44626</v>
+        <v>44631</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="21">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="D3" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="H3" s="18">
-        <v>0</v>
+        <f>C3*D$23</f>
+        <v>25862.6466</v>
       </c>
       <c r="I3" s="18">
-        <v>0</v>
+        <f>IF(G3="halfred",-(D$23/2),H3-D$23)</f>
+        <v>-7431.7950000000001</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>31</v>
@@ -4543,36 +4613,35 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="D4" s="16">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H10" si="0">C4*D$26</f>
-        <v>25862.6466</v>
+        <v>0</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I10" si="1">IF(G4="halfred",-(D$26/2),H4-D$26)</f>
-        <v>-7431.7950000000001</v>
+        <f>IF(G4="halfred",-(D$23/2),H4-D$23)</f>
+        <v>-14863.59</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>28</v>
@@ -4582,73 +4651,73 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>44632</v>
+        <v>44635</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="21">
         <v>2</v>
       </c>
       <c r="D5" s="16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>83</v>
+      <c r="F5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="18">
-        <v>0</v>
+        <f>C5*D$23</f>
+        <v>29727.18</v>
       </c>
       <c r="I5" s="18">
-        <f t="shared" si="1"/>
-        <v>-14863.59</v>
+        <f>IF(G5="halfred",-(D$23/2),H5-D$23)</f>
+        <v>14863.59</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>44633</v>
+        <v>44636</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="21">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="D6" s="16">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>83</v>
+      <c r="F6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="H6" s="18">
         <v>0</v>
       </c>
       <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>-14863.59</v>
+        <v>0</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>28</v>
@@ -4658,36 +4727,36 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>44635</v>
+        <v>44646</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="21">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="D7" s="16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="18">
-        <f t="shared" si="0"/>
-        <v>29727.18</v>
+        <f>C7*D$23</f>
+        <v>26308.5543</v>
       </c>
       <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>14863.59</v>
+        <f>IF(G7="halfred",-(D$23/2),H7-D$23)</f>
+        <v>11444.9643</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>20</v>
@@ -4696,128 +4765,60 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44636</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>44638</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="21">
-        <v>2</v>
-      </c>
-      <c r="D9" s="16">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>44646</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1.77</v>
-      </c>
-      <c r="D10" s="16">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="0"/>
-        <v>26308.5543</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="1"/>
-        <v>11444.9643</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -4825,14 +4826,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <f>COUNT(D2:D7)-2</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -4840,14 +4846,18 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="27">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -4855,14 +4865,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="30">
+        <f>D12-D13</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -4871,17 +4886,17 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9">
-        <f>COUNT(D2:D10)</f>
-        <v>9</v>
+        <f>D14/D12*100</f>
+        <v>50</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="12"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -4891,11 +4906,12 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="27">
-        <v>3</v>
+      <c r="D16" s="9">
+        <f>1/D17*100</f>
+        <v>53.85996409335727</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="39"/>
@@ -4910,12 +4926,12 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="30">
-        <f>D15-D16</f>
-        <v>6</v>
+      <c r="D17" s="9">
+        <f>SUM(C2:C7)/COUNT(D2:D7)</f>
+        <v>1.8566666666666667</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="39"/>
@@ -4930,12 +4946,12 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9">
-        <f>D17/D15*100</f>
-        <v>66.666666666666657</v>
+      <c r="D18" s="30">
+        <f>D15-D16</f>
+        <v>-3.8599640933572701</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="39"/>
@@ -4950,12 +4966,12 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9">
-        <f>1/D20*100</f>
-        <v>52.508751458576427</v>
+      <c r="D19" s="30">
+        <f>D26/1</f>
+        <v>0.80999999999999961</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="39"/>
@@ -4969,14 +4985,9 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9">
-        <f>SUM(C2:C10)/D15</f>
-        <v>1.9044444444444446</v>
-      </c>
+      <c r="D20" s="30"/>
       <c r="E20" s="12"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
@@ -4987,15 +4998,14 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="30">
-        <f>D18-D19</f>
-        <v>14.15791520809023</v>
+      <c r="D21" s="31">
+        <v>495453</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="39"/>
@@ -5010,12 +5020,12 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="30">
-        <f>D29/1</f>
-        <v>0.80999999999999961</v>
+      <c r="D22" s="18">
+        <f>D21/100</f>
+        <v>4954.53</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="39"/>
@@ -5029,9 +5039,14 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="18">
+        <f>D22*3</f>
+        <v>14863.59</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="39"/>
       <c r="G23" s="40"/>
@@ -5042,14 +5057,15 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="31">
-        <v>495453</v>
+      <c r="D24" s="32">
+        <f>D22*7</f>
+        <v>34681.71</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="39"/>
@@ -5064,12 +5080,12 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="18">
-        <f>D24/100</f>
-        <v>4954.53</v>
+        <f>SUM(I2:I8)</f>
+        <v>4013.1692999999977</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="39"/>
@@ -5083,13 +5099,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
-        <v>68</v>
+      <c r="B26" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="18">
-        <f>D25*3</f>
-        <v>14863.59</v>
+      <c r="D26" s="9">
+        <f>D25/D21*100</f>
+        <v>0.80999999999999961</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="39"/>
@@ -5103,14 +5119,9 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="32">
-        <f>D25*7</f>
-        <v>34681.71</v>
-      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="12"/>
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
@@ -5123,14 +5134,9 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="18">
-        <f>SUM(I2:I11)</f>
-        <v>4013.1692999999977</v>
-      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="12"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
@@ -5143,14 +5149,9 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="33" t="s">
-        <v>71</v>
-      </c>
+      <c r="B29" s="34"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9">
-        <f>D28/D24*100</f>
-        <v>0.80999999999999961</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="12"/>
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
@@ -5163,9 +5164,9 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="12"/>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
@@ -5178,9 +5179,9 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="12"/>
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
@@ -5193,7 +5194,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="12"/>
@@ -5208,7 +5209,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="34"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="12"/>
@@ -5223,7 +5224,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="34"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="12"/>
@@ -5372,6 +5373,3167 @@
       <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F13:G43">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I8">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="226.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44653</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J2" s="11">
+        <v>44652</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2.66</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M2" s="11">
+        <v>44652</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="9">
+        <v>22</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44654</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3.92</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4.53</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="J3" s="11">
+        <v>44648</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2.81</v>
+      </c>
+      <c r="M3" s="11">
+        <v>44648</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2.92</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1.44</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1.41</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2.46</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2.56</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="9">
+        <v>23</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44656</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2.88</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="J4" s="11">
+        <v>44648</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2.27</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2.52</v>
+      </c>
+      <c r="M4" s="11">
+        <v>44648</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2.82</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="R4" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="9">
+        <v>23</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44656</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.39</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.06</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3.07</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2.41</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="J5" s="11">
+        <v>44653</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2.31</v>
+      </c>
+      <c r="M5" s="11">
+        <v>44653</v>
+      </c>
+      <c r="N5" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="9">
+        <v>16</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44657</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.06</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.58</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3.32</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.56</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3.49</v>
+      </c>
+      <c r="J6" s="11">
+        <v>44653</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.97</v>
+      </c>
+      <c r="M6" s="11">
+        <v>44653</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="9">
+        <v>17</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.17</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2.52</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="J7" s="11">
+        <v>44656</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M7" s="11">
+        <v>44656</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="9">
+        <v>17</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.84</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.39</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.27</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2.98</v>
+      </c>
+      <c r="J8" s="11">
+        <v>44656</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M8" s="11">
+        <v>44656</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.38</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="9">
+        <v>25</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4.42</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3.46</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="J9" s="11">
+        <v>44656</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M9" s="11">
+        <v>44656</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="9">
+        <v>24</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3.38</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5.13</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="J10" s="11">
+        <v>44658</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.74</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M10" s="11">
+        <v>44658</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.46</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="9">
+        <v>21</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2.56</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="J11" s="11">
+        <v>44657</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3.45</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M11" s="11">
+        <v>44657</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="9">
+        <v>19</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="X11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3.22</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3.97</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="J12" s="11">
+        <v>44656</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.77</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="M12" s="11">
+        <v>44656</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="R12" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="9">
+        <v>23</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.74</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J13" s="11">
+        <v>44655</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2.23</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="M13" s="11">
+        <v>44655</v>
+      </c>
+      <c r="N13" s="9">
+        <v>3.07</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="9">
+        <v>23</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44661</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3.03</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3.81</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3.35</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="J14" s="11">
+        <v>44658</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2.23</v>
+      </c>
+      <c r="M14" s="11">
+        <v>44658</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="9">
+        <v>16</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44663</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2.21</v>
+      </c>
+      <c r="J15" s="11">
+        <v>44656</v>
+      </c>
+      <c r="K15" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L15" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="M15" s="11">
+        <v>44656</v>
+      </c>
+      <c r="N15" s="9">
+        <v>3.01</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1.37</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>2.72</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="9">
+        <v>25</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44666</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.45</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.49</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.28</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="J16" s="11">
+        <v>44660</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3.51</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="M16" s="11">
+        <v>44660</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="9">
+        <v>24</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44667</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.38</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3.88</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3.62</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="J17" s="11">
+        <v>44661</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M17" s="11">
+        <v>44661</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="9">
+        <v>26</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44667</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3.42</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J18" s="11">
+        <v>44662</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2.27</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2.86</v>
+      </c>
+      <c r="M18" s="11">
+        <v>44662</v>
+      </c>
+      <c r="N18" s="9">
+        <v>3</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>2.52</v>
+      </c>
+      <c r="R18" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="9">
+        <v>15</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>44669</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="J19" s="11">
+        <v>44663</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3.64</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="M19" s="11">
+        <v>44663</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1.97</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="P19" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="R19" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="9">
+        <v>26</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44669</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3.36</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4.46</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="J20" s="11">
+        <v>44663</v>
+      </c>
+      <c r="K20" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="M20" s="11">
+        <v>44663</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="R20" s="9">
+        <v>2</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="9">
+        <v>21</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>44669</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2.56</v>
+      </c>
+      <c r="I21" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="J21" s="11">
+        <v>44662</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3.03</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2.21</v>
+      </c>
+      <c r="M21" s="11">
+        <v>44662</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="9">
+        <v>21</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="X21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44674</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2.88</v>
+      </c>
+      <c r="G22" s="9">
+        <v>3.02</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="J22" s="11">
+        <v>44668</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="M22" s="11">
+        <v>44668</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1.63</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="R22" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="9">
+        <v>21</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="X22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>44675</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2.36</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.77</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="G23" s="9">
+        <v>3.37</v>
+      </c>
+      <c r="H23" s="9">
+        <v>3.66</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="J23" s="11">
+        <v>44673</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="L23" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M23" s="11">
+        <v>44673</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1.51</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R23" s="9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="9">
+        <v>18</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="X23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44676</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3.46</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4.08</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2.97</v>
+      </c>
+      <c r="J24" s="11">
+        <v>44670</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3.62</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M24" s="11">
+        <v>44670</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="P24" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="9">
+        <v>20</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>44677</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3.11</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4.22</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3.26</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>44609</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3.71</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="M25" s="11">
+        <v>44609</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="9">
+        <v>20</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X25" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44680</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3.86</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5.07</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2.87</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3.56</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="J26" s="11">
+        <v>44674</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="M26" s="11">
+        <v>44674</v>
+      </c>
+      <c r="N26" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="9">
+        <v>22</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="D27" s="9">
+        <v>6.72</v>
+      </c>
+      <c r="E27" s="9">
+        <v>3.01</v>
+      </c>
+      <c r="F27" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1.64</v>
+      </c>
+      <c r="I27" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="J27" s="11">
+        <v>44675</v>
+      </c>
+      <c r="K27" s="9">
+        <v>3.32</v>
+      </c>
+      <c r="L27" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="M27" s="11">
+        <v>44675</v>
+      </c>
+      <c r="N27" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1.84</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="9">
+        <v>26</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3.59</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4.04</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="I28" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="J28" s="11">
+        <v>44675</v>
+      </c>
+      <c r="K28" s="9">
+        <v>3.58</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M28" s="11">
+        <v>44675</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="P28" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="9">
+        <v>26</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="X28" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.92</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4.07</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="J29" s="11">
+        <v>44680</v>
+      </c>
+      <c r="K29" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="M29" s="11">
+        <v>44680</v>
+      </c>
+      <c r="N29" s="9">
+        <v>2.69</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1.47</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R29" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="9">
+        <v>22</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44656</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="21">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="18">
+        <f t="shared" ref="H2:H8" si="0">C2*D$31</f>
+        <v>29727.18</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1.81</v>
+      </c>
+      <c r="D3" s="16">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18">
+        <f t="shared" si="0"/>
+        <v>26903.097900000001</v>
+      </c>
+      <c r="I3" s="18">
+        <f>H3-D$31</f>
+        <v>12039.507900000001</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44660</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18">
+        <f t="shared" si="0"/>
+        <v>29727.18</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44661</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>29727.18</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44663</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>29727.18</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44667</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>29727.18</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" ref="I7:I14" si="1">H7-D$31</f>
+        <v>14863.59</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44669</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D8" s="9">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>29132.636399999999</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="1"/>
+        <v>14269.046399999999</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44669</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1.71</v>
+      </c>
+      <c r="D9" s="9">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="1"/>
+        <v>-14863.59</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44676</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.69</v>
+      </c>
+      <c r="D10" s="9">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="18">
+        <f>C10*D$31</f>
+        <v>25119.467099999998</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="1"/>
+        <v>10255.877099999998</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44677</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.69</v>
+      </c>
+      <c r="D11" s="9">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="18">
+        <f>C11*D$31</f>
+        <v>25119.467099999998</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>10255.877099999998</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1.84</v>
+      </c>
+      <c r="D12" s="9">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="1"/>
+        <v>-14863.59</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="D13" s="9">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="18">
+        <f>C13*D$31</f>
+        <v>26011.282500000001</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
+        <v>11147.692500000001</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44681</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="1"/>
+        <v>-14863.59</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
+        <f>COUNT(D2:D14)-4</f>
+        <v>9</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="27">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="30">
+        <f>D20-D21</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <f>D22/D20*100</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
+        <f>1/D25*100</f>
+        <v>53.169734151329237</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <f>SUM(C2:C14)/COUNT(D2:D14)</f>
+        <v>1.880769230769231</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="30">
+        <f>D23-D24</f>
+        <v>24.608043626448548</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="30">
+        <f>D34/1</f>
+        <v>5.7</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="31">
+        <v>495453</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="18">
+        <f>D29/100</f>
+        <v>4954.53</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="18">
+        <f>D30*3</f>
+        <v>14863.59</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="32">
+        <f>D30*7</f>
+        <v>34681.71</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="18">
+        <f>SUM(I2:I14)</f>
+        <v>28240.821</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9">
+        <f>D33/D29*100</f>
+        <v>5.7</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5401,56 +8563,19 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F16:G46">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F21:G45">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I10">
+  <conditionalFormatting sqref="I2:I14">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5463,18 +8588,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="9"/>
     <col min="22" max="22" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -5555,655 +8682,60 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>44653</v>
+      <c r="A2" s="11">
+        <v>44682</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9">
-        <v>22</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>44654</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="9">
-        <v>23</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44655</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="9">
-        <v>23</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>44656</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9">
-        <v>16</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44657</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="9">
-        <v>17</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="9">
-        <v>17</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="9">
-        <v>25</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="9">
-        <v>24</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="9">
-        <v>21</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="9">
-        <v>19</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="9">
-        <v>23</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>44660</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="9">
-        <v>23</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>44661</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" s="9">
-        <v>16</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>44663</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="S15" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" s="9">
-        <v>25</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>44666</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="S16" t="s">
-        <v>24</v>
-      </c>
-      <c r="U16" s="9">
-        <v>24</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>44667</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="9">
-        <v>26</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>44667</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S18" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="9">
-        <v>15</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>44669</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S19" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="9">
-        <v>26</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>44669</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="S20" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" s="9">
-        <v>21</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>44669</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="S21" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="9">
-        <v>21</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>44674</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="S22" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="9">
-        <v>21</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>44675</v>
-      </c>
-      <c r="B23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="S23" t="s">
-        <v>37</v>
-      </c>
-      <c r="U23" s="9">
-        <v>18</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="C2" s="9">
+        <v>3.47</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3.17</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2.46</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2.66</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="J2" s="11">
         <v>44676</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="S24" t="s">
-        <v>37</v>
-      </c>
-      <c r="U24" s="9">
-        <v>20</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>44677</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="S25" t="s">
-        <v>24</v>
-      </c>
-      <c r="U25" s="9">
-        <v>20</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>44680</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" s="9">
-        <v>22</v>
-      </c>
-      <c r="V26" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>44681</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S27" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="9">
-        <v>26</v>
-      </c>
-      <c r="V27" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>44681</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="S28" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="9">
-        <v>26</v>
-      </c>
-      <c r="V28" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>44681</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="S29" t="s">
-        <v>24</v>
-      </c>
-      <c r="U29" s="9">
-        <v>22</v>
-      </c>
-      <c r="V29" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="9"/>
-    <col min="22" max="22" width="34.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="226.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>44682</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="K2" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M2" s="11">
+        <v>44676</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2.48</v>
+      </c>
       <c r="S2" s="9" t="s">
         <v>24</v>
       </c>
@@ -6212,519 +8744,2173 @@
         <v>24</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="11">
         <v>44683</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.89</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3.86</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4.12</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="J3" s="11">
+        <v>44678</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="M3" s="11">
+        <v>44678</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2.34</v>
+      </c>
+      <c r="R3" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="9"/>
       <c r="U3" s="9">
         <v>19</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="11">
         <v>44683</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6.32</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="J4" s="11">
+        <v>44676</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3.44</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="M4" s="11">
+        <v>44676</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T4" s="9"/>
       <c r="U4" s="9">
         <v>18</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="W4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="11">
         <v>44685</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.63</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3.37</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.77</v>
+      </c>
+      <c r="J5" s="11">
+        <v>44679</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2.38</v>
+      </c>
+      <c r="M5" s="11">
+        <v>44679</v>
+      </c>
+      <c r="N5" s="9">
+        <v>2.36</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.63</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T5" s="9"/>
       <c r="U5" s="9">
         <v>18</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="11">
         <v>44687</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4.09</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6.15</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.74</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4.55</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J6" s="11">
+        <v>44681</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.83</v>
+      </c>
+      <c r="M6" s="11">
+        <v>44681</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.51</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1.51</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T6" s="9"/>
       <c r="U6" s="9">
         <v>24</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="W6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="X6" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="11">
         <v>44687</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3.85</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3.69</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="J7" s="11">
+        <v>44681</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="M7" s="11">
+        <v>44681</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T7" s="9"/>
       <c r="U7" s="9">
         <v>26</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="W7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="11">
         <v>44687</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.89</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.94</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.62</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="J8" s="11">
+        <v>44682</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="M8" s="11">
+        <v>44682</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="9"/>
       <c r="U8" s="9">
         <v>21</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X8" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="11">
         <v>44688</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" t="s">
-        <v>37</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.92</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3.93</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4.46</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3.49</v>
+      </c>
+      <c r="J9" s="11">
+        <v>44682</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3.82</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="M9" s="11">
+        <v>44682</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1.91</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="9"/>
       <c r="U9" s="9">
         <v>25</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="11">
         <v>44688</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="S10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.64</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3.97</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.96</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6.11</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2.72</v>
+      </c>
+      <c r="J10" s="11">
+        <v>44675</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3.51</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M10" s="11">
+        <v>44675</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1.79</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T10" s="9"/>
       <c r="U10" s="9">
         <v>24</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="11">
         <v>44689</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="S11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="9">
+        <v>606</v>
+      </c>
+      <c r="D11" s="9">
+        <v>606</v>
+      </c>
+      <c r="E11" s="9">
+        <v>606</v>
+      </c>
+      <c r="F11" s="9">
+        <v>606</v>
+      </c>
+      <c r="G11" s="9">
+        <v>606</v>
+      </c>
+      <c r="H11" s="9">
+        <v>606</v>
+      </c>
+      <c r="I11" s="9">
+        <v>606</v>
+      </c>
+      <c r="J11" s="9">
+        <v>606</v>
+      </c>
+      <c r="K11" s="9">
+        <v>606</v>
+      </c>
+      <c r="L11" s="9">
+        <v>606</v>
+      </c>
+      <c r="M11" s="9">
+        <v>606</v>
+      </c>
+      <c r="N11" s="9">
+        <v>606</v>
+      </c>
+      <c r="O11" s="9">
+        <v>606</v>
+      </c>
+      <c r="P11" s="9">
+        <v>606</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>606</v>
+      </c>
+      <c r="R11" s="9">
+        <v>606</v>
+      </c>
+      <c r="S11" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T11" s="9"/>
       <c r="U11" s="9">
         <v>22</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="W11" s="9">
+        <v>606</v>
+      </c>
+      <c r="X11" s="9">
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="11">
         <v>44689</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3.03</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.86</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3.96</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3.03</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12" s="11">
+        <v>44683</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="M12" s="11">
+        <v>44683</v>
+      </c>
+      <c r="N12" s="9">
+        <v>3</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1.41</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="R12" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T12" s="9"/>
       <c r="U12" s="9">
         <v>19</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="11">
         <v>44689</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3.51</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.82</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3.01</v>
+      </c>
+      <c r="J13" s="11">
+        <v>44687</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.77</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2.23</v>
+      </c>
+      <c r="M13" s="11">
+        <v>44687</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="S13" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T13" s="9"/>
       <c r="U13" s="9">
         <v>26</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="11">
         <v>44691</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.31</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5.35</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5.32</v>
+      </c>
+      <c r="G14" s="9">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7.22</v>
+      </c>
+      <c r="I14" s="9">
+        <v>404</v>
+      </c>
+      <c r="J14" s="11">
+        <v>44683</v>
+      </c>
+      <c r="K14" s="9">
+        <v>404</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="M14" s="11">
+        <v>44682</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T14" s="9"/>
       <c r="U14" s="9">
         <v>22</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="11">
         <v>44695</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3.51</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4.18</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.71</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.91</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3.73</v>
+      </c>
+      <c r="J15" s="11">
+        <v>44689</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3.56</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="M15" s="11">
+        <v>44689</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1.97</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="S15" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T15" s="9"/>
       <c r="U15" s="9">
         <v>17</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="11">
         <v>44696</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="S16" t="s">
-        <v>37</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.01</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="J16" s="11">
+        <v>44689</v>
+      </c>
+      <c r="K16" s="9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="M16" s="11">
+        <v>44689</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="R16" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="9"/>
       <c r="U16" s="9">
         <v>19</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+        <v>82</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>44698</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="S17" t="s">
-        <v>37</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.07</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3.27</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="J17" s="11">
+        <v>44692</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M17" s="11">
+        <v>44692</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1.87</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="9"/>
       <c r="U17" s="9">
         <v>21</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+        <v>85</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>44702</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" t="s">
-        <v>37</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.88</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3.17</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2.61</v>
+      </c>
+      <c r="J18" s="11">
+        <v>44696</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2.23</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M18" s="11">
+        <v>44696</v>
+      </c>
+      <c r="N18" s="9">
+        <v>3.06</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R18" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="9"/>
       <c r="U18" s="9">
         <v>16</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>82</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>44702</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S19" t="s">
-        <v>37</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.99</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6.46</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3.27</v>
+      </c>
+      <c r="J19" s="11">
+        <v>44696</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="M19" s="11">
+        <v>44696</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="P19" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1.83</v>
+      </c>
+      <c r="R19" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="9"/>
       <c r="U19" s="9">
         <v>16</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+        <v>87</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>44702</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="S20" t="s">
-        <v>37</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.72</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2.62</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="G20" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="J20" s="11">
+        <v>44696</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.86</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="M20" s="11">
+        <v>44696</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="R20" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="9"/>
       <c r="U20" s="9">
         <v>18</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+        <v>87</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>44702</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="S21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2.66</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3.42</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.35</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="I21" s="9">
+        <v>3.47</v>
+      </c>
+      <c r="J21" s="11">
+        <v>44693</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="M21" s="11">
+        <v>44693</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1.97</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1.73</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T21" s="9"/>
       <c r="U21" s="9">
         <v>18</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+        <v>124</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>44702</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S22" t="s">
-        <v>37</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="G22" s="9">
+        <v>3.89</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3.94</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="J22" s="11">
+        <v>44696</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2.81</v>
+      </c>
+      <c r="M22" s="11">
+        <v>44696</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2.27</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1.44</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>2.46</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="9"/>
       <c r="U22" s="9">
         <v>20</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+        <v>82</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>44703</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="E23" s="9">
+        <v>3.95</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="G23" s="9">
+        <v>7.19</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.24</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="J23" s="11">
+        <v>44697</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L23" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="M23" s="11">
+        <v>44697</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2.76</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T23" s="9"/>
       <c r="U23" s="9">
         <v>18</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+        <v>140</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>44706</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="S24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2.59</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3.46</v>
+      </c>
+      <c r="G24" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2.89</v>
+      </c>
+      <c r="I24" s="9">
+        <v>3.48</v>
+      </c>
+      <c r="J24" s="11">
+        <v>44700</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3.74</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="M24" s="11">
+        <v>44700</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="P24" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1.72</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T24" s="9"/>
       <c r="U24" s="9">
         <v>24</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+        <v>87</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="X24" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>44706</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="S25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2.86</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3.45</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.26</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2.98</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2.92</v>
+      </c>
+      <c r="J25" s="11">
+        <v>44710</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2.92</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2.21</v>
+      </c>
+      <c r="M25" s="11">
+        <v>44700</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="R25" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="S25" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T25" s="9"/>
       <c r="U25" s="9">
         <v>23</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+        <v>87</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="X25" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>44710</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="S26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2.86</v>
+      </c>
+      <c r="G26" s="9">
+        <v>3.19</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="J26" s="11">
+        <v>44704</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M26" s="11">
+        <v>44704</v>
+      </c>
+      <c r="N26" s="9">
+        <v>2.63</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="R26" s="9">
+        <v>2.29</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T26" s="9"/>
       <c r="U26" s="9">
         <v>26</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+        <v>85</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>44710</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="S27" t="s">
-        <v>37</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.77</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2.81</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3.36</v>
+      </c>
+      <c r="H27" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2.36</v>
+      </c>
+      <c r="J27" s="11">
+        <v>44703</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L27" s="9">
+        <v>2.82</v>
+      </c>
+      <c r="M27" s="11">
+        <v>44703</v>
+      </c>
+      <c r="N27" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="R27" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="9"/>
       <c r="U27" s="9">
         <v>20</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+        <v>82</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>44710</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="S28" t="s">
-        <v>37</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C28" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D28" s="9">
+        <v>4.05</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3.01</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="J28" s="11">
+        <v>44709</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="M28" s="11">
+        <v>44708</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1.63</v>
+      </c>
+      <c r="P28" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="R28" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="9"/>
       <c r="U28" s="9">
         <v>21</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+        <v>146</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>44710</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="S29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3.03</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3.79</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3.55</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="G29" s="9">
+        <v>2.41</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="I29" s="9">
+        <v>3.42</v>
+      </c>
+      <c r="J29" s="11">
+        <v>44704</v>
+      </c>
+      <c r="K29" s="9">
+        <v>3.19</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M29" s="11">
+        <v>44704</v>
+      </c>
+      <c r="N29" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="S29" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T29" s="9"/>
       <c r="U29" s="9">
         <v>23</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+        <v>87</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X29" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>44710</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2.44</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.36</v>
+      </c>
+      <c r="F30" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="G30" s="9">
+        <v>4.43</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="I30" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="J30" s="11">
+        <v>44704</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="L30" s="9">
+        <v>2.38</v>
+      </c>
+      <c r="M30" s="11">
+        <v>44704</v>
+      </c>
+      <c r="N30" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="R30" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S30" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T30" s="9"/>
       <c r="U30" s="9">
         <v>26</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+        <v>118</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="X30" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>44710</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="S31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="9">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D31" s="9">
+        <v>4.92</v>
+      </c>
+      <c r="E31" s="9">
+        <v>4.18</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3.94</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="I31" s="9">
+        <v>3.81</v>
+      </c>
+      <c r="J31" s="11">
+        <v>44704</v>
+      </c>
+      <c r="K31" s="9">
+        <v>3.58</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="M31" s="11">
+        <v>44704</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1.97</v>
+      </c>
+      <c r="O31" s="9">
+        <v>1.98</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="S31" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T31" s="9"/>
       <c r="U31" s="9">
         <v>23</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+        <v>87</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>44710</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="S32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2.81</v>
+      </c>
+      <c r="G32" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3.18</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="J32" s="11">
+        <v>44709</v>
+      </c>
+      <c r="K32" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="L32" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M32" s="11">
+        <v>44709</v>
+      </c>
+      <c r="N32" s="9">
+        <v>2.69</v>
+      </c>
+      <c r="O32" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>2.27</v>
+      </c>
+      <c r="R32" s="9">
+        <v>2.37</v>
+      </c>
+      <c r="S32" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="T32" s="9"/>
       <c r="U32" s="9">
         <v>24</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X32" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/GENESIS-MATRIZ-2022.xlsx
+++ b/tecnica_analise/GENESIS-MATRIZ-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="maioGENESIS2023" sheetId="10" r:id="rId1"/>
@@ -31,13 +31,15 @@
     <sheet name="outubroInvest" sheetId="23" r:id="rId22"/>
     <sheet name="novembro" sheetId="22" r:id="rId23"/>
     <sheet name="novembroInvest" sheetId="24" r:id="rId24"/>
+    <sheet name="dezembro" sheetId="25" r:id="rId25"/>
+    <sheet name="dezembroInvest" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="306">
   <si>
     <t>DATA</t>
   </si>
@@ -1436,6 +1438,63 @@
   </si>
   <si>
     <t>2--4</t>
+  </si>
+  <si>
+    <t> ANCONA 1905 vs ALESSANDRIA</t>
+  </si>
+  <si>
+    <t> NORTHAMPTON vs TRANMERE</t>
+  </si>
+  <si>
+    <t>GENOA vs CITTADELLA</t>
+  </si>
+  <si>
+    <t>GENOA vs SUDTIROL</t>
+  </si>
+  <si>
+    <t>CITTADELLA vs BARI</t>
+  </si>
+  <si>
+    <t>BOREHAM WOOD vs SOUTHEND UTD</t>
+  </si>
+  <si>
+    <t>BRISTOL CITY vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>FERMANA vs SASSARI TORRES</t>
+  </si>
+  <si>
+    <t>CITTADELLA vs SUDTIROL</t>
+  </si>
+  <si>
+    <t> PERUGIA vs VENEZIA</t>
+  </si>
+  <si>
+    <t>PONTEDERA vs OLBIA</t>
+  </si>
+  <si>
+    <t>SASSARI TORRES vs VIRTUS ENTELLA</t>
+  </si>
+  <si>
+    <t>BENEVENTO vs PERUGIA</t>
+  </si>
+  <si>
+    <t>TRANMERE vs DONCASTER</t>
+  </si>
+  <si>
+    <t>VENEZIA vs PARMA</t>
+  </si>
+  <si>
+    <t>BRISTOL CITY vs WEST BROM</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs WATFORD</t>
+  </si>
+  <si>
+    <t>5--4</t>
+  </si>
+  <si>
+    <t>under 2,25</t>
   </si>
 </sst>
 </file>
@@ -1777,47 +1836,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1870,6 +1889,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1895,26 +1934,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5932,21 +5951,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F33:G47">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I26">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6729,21 +6748,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G31">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8972,21 +8991,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22:G36">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I14">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9610,21 +9629,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G28">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10992,21 +11011,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12544,21 +12563,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13845,21 +13864,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F15:G29">
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14509,21 +14528,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15851,7 +15870,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="44">
-        <f t="shared" ref="H3:H6" si="1">C6*D$22</f>
+        <f t="shared" ref="H6" si="1">C6*D$22</f>
         <v>37852.609199999999</v>
       </c>
       <c r="I6" s="18">
@@ -16195,21 +16214,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16221,8 +16240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17167,8 +17186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection sqref="A1:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17309,7 +17328,7 @@
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="44">
-        <f t="shared" ref="H3:H7" si="1">C4*D$22</f>
+        <f t="shared" ref="H4:H6" si="1">C4*D$22</f>
         <v>37456.246799999994</v>
       </c>
       <c r="I4" s="18">
@@ -17744,25 +17763,2050 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="19"/>
+    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="226.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44898</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2">
+        <v>1.78</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="E2">
+        <v>3.13</v>
+      </c>
+      <c r="F2">
+        <v>3.03</v>
+      </c>
+      <c r="G2">
+        <v>4.01</v>
+      </c>
+      <c r="H2">
+        <v>5.04</v>
+      </c>
+      <c r="I2">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="7">
+        <v>44898</v>
+      </c>
+      <c r="K2">
+        <v>2.59</v>
+      </c>
+      <c r="L2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M2" s="7">
+        <v>44896</v>
+      </c>
+      <c r="N2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O2">
+        <v>1.56</v>
+      </c>
+      <c r="P2">
+        <v>1.58</v>
+      </c>
+      <c r="Q2">
+        <v>1.97</v>
+      </c>
+      <c r="R2">
+        <v>2.04</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="19">
+        <v>20</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44898</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2.15</v>
+      </c>
+      <c r="E3">
+        <v>3.35</v>
+      </c>
+      <c r="F3">
+        <v>3.23</v>
+      </c>
+      <c r="G3">
+        <v>4.22</v>
+      </c>
+      <c r="H3">
+        <v>3.86</v>
+      </c>
+      <c r="I3">
+        <v>2.73</v>
+      </c>
+      <c r="J3" s="7">
+        <v>44891</v>
+      </c>
+      <c r="K3">
+        <v>2.79</v>
+      </c>
+      <c r="L3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44891</v>
+      </c>
+      <c r="N3">
+        <v>2.52</v>
+      </c>
+      <c r="O3">
+        <v>1.6</v>
+      </c>
+      <c r="P3">
+        <v>1.56</v>
+      </c>
+      <c r="Q3">
+        <v>2.13</v>
+      </c>
+      <c r="R3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="19">
+        <v>17</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44899</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4">
+        <v>1.57</v>
+      </c>
+      <c r="D4">
+        <v>1.71</v>
+      </c>
+      <c r="E4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F4">
+        <v>3.51</v>
+      </c>
+      <c r="G4">
+        <v>6.56</v>
+      </c>
+      <c r="H4">
+        <v>6.17</v>
+      </c>
+      <c r="I4">
+        <v>3.52</v>
+      </c>
+      <c r="J4" s="7">
+        <v>44892</v>
+      </c>
+      <c r="K4">
+        <v>2.93</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <v>44892</v>
+      </c>
+      <c r="N4">
+        <v>2.37</v>
+      </c>
+      <c r="O4">
+        <v>1.86</v>
+      </c>
+      <c r="P4">
+        <v>1.64</v>
+      </c>
+      <c r="Q4">
+        <v>1.76</v>
+      </c>
+      <c r="R4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="19">
+        <v>21</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44903</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5">
+        <v>1.42</v>
+      </c>
+      <c r="D5">
+        <v>1.46</v>
+      </c>
+      <c r="E5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H5">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I5">
+        <v>3.68</v>
+      </c>
+      <c r="J5" s="7">
+        <v>44899</v>
+      </c>
+      <c r="K5">
+        <v>3.65</v>
+      </c>
+      <c r="L5">
+        <v>1.9</v>
+      </c>
+      <c r="M5" s="7">
+        <v>44899</v>
+      </c>
+      <c r="N5">
+        <v>1.97</v>
+      </c>
+      <c r="O5">
+        <v>1.8</v>
+      </c>
+      <c r="P5">
+        <v>1.84</v>
+      </c>
+      <c r="Q5">
+        <v>1.68</v>
+      </c>
+      <c r="R5">
+        <v>1.72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="19">
+        <v>23</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44903</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6">
+        <v>2.62</v>
+      </c>
+      <c r="D6">
+        <v>2.68</v>
+      </c>
+      <c r="E6">
+        <v>2.91</v>
+      </c>
+      <c r="F6">
+        <v>2.73</v>
+      </c>
+      <c r="G6">
+        <v>3.3</v>
+      </c>
+      <c r="H6">
+        <v>3.48</v>
+      </c>
+      <c r="I6">
+        <v>3.05</v>
+      </c>
+      <c r="J6" s="7">
+        <v>44899</v>
+      </c>
+      <c r="K6">
+        <v>2.27</v>
+      </c>
+      <c r="L6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M6" s="7">
+        <v>44899</v>
+      </c>
+      <c r="N6">
+        <v>3.08</v>
+      </c>
+      <c r="O6">
+        <v>1.68</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>1.97</v>
+      </c>
+      <c r="R6">
+        <v>2.7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="19">
+        <v>16</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" t="s">
+        <v>155</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44905</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7">
+        <v>404</v>
+      </c>
+      <c r="E7">
+        <v>404</v>
+      </c>
+      <c r="F7">
+        <v>404</v>
+      </c>
+      <c r="G7">
+        <v>404</v>
+      </c>
+      <c r="H7">
+        <v>404</v>
+      </c>
+      <c r="I7">
+        <v>404</v>
+      </c>
+      <c r="J7">
+        <v>404</v>
+      </c>
+      <c r="K7">
+        <v>404</v>
+      </c>
+      <c r="L7">
+        <v>404</v>
+      </c>
+      <c r="M7">
+        <v>404</v>
+      </c>
+      <c r="N7">
+        <v>404</v>
+      </c>
+      <c r="O7">
+        <v>404</v>
+      </c>
+      <c r="P7">
+        <v>404</v>
+      </c>
+      <c r="Q7">
+        <v>404</v>
+      </c>
+      <c r="R7">
+        <v>404</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="19">
+        <v>20</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="W7">
+        <v>404</v>
+      </c>
+      <c r="X7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44912</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8">
+        <v>2.62</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>3.31</v>
+      </c>
+      <c r="F8">
+        <v>3.35</v>
+      </c>
+      <c r="G8">
+        <v>2.82</v>
+      </c>
+      <c r="H8">
+        <v>3.04</v>
+      </c>
+      <c r="I8">
+        <v>3.16</v>
+      </c>
+      <c r="J8" s="7">
+        <v>44905</v>
+      </c>
+      <c r="K8">
+        <v>3.36</v>
+      </c>
+      <c r="L8">
+        <v>2.15</v>
+      </c>
+      <c r="M8" s="7">
+        <v>44905</v>
+      </c>
+      <c r="N8">
+        <v>2.12</v>
+      </c>
+      <c r="O8">
+        <v>1.75</v>
+      </c>
+      <c r="P8">
+        <v>1.79</v>
+      </c>
+      <c r="Q8">
+        <v>1.88</v>
+      </c>
+      <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="19">
+        <v>17</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W8" t="s">
+        <v>154</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44912</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9">
+        <v>2.36</v>
+      </c>
+      <c r="D9">
+        <v>3.21</v>
+      </c>
+      <c r="E9">
+        <v>2.59</v>
+      </c>
+      <c r="F9">
+        <v>2.48</v>
+      </c>
+      <c r="G9">
+        <v>3.11</v>
+      </c>
+      <c r="H9">
+        <v>2.7</v>
+      </c>
+      <c r="I9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J9" s="7">
+        <v>44910</v>
+      </c>
+      <c r="K9">
+        <v>2.08</v>
+      </c>
+      <c r="L9">
+        <v>2.7</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44910</v>
+      </c>
+      <c r="N9">
+        <v>2.7</v>
+      </c>
+      <c r="O9">
+        <v>1.41</v>
+      </c>
+      <c r="P9">
+        <v>1.41</v>
+      </c>
+      <c r="Q9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R9">
+        <v>2.76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="19">
+        <v>16</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44913</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10">
+        <v>2.04</v>
+      </c>
+      <c r="D10">
+        <v>2.21</v>
+      </c>
+      <c r="E10">
+        <v>3.13</v>
+      </c>
+      <c r="F10">
+        <v>3.05</v>
+      </c>
+      <c r="G10">
+        <v>4.54</v>
+      </c>
+      <c r="H10">
+        <v>4.03</v>
+      </c>
+      <c r="I10">
+        <v>2.76</v>
+      </c>
+      <c r="J10" s="7">
+        <v>44906</v>
+      </c>
+      <c r="K10">
+        <v>2.61</v>
+      </c>
+      <c r="L10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="M10" s="7">
+        <v>44906</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
+        <v>1.58</v>
+      </c>
+      <c r="P10">
+        <v>1.54</v>
+      </c>
+      <c r="Q10">
+        <v>2.16</v>
+      </c>
+      <c r="R10">
+        <v>2.27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="19">
+        <v>22</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44914</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11">
+        <v>2.63</v>
+      </c>
+      <c r="D11">
+        <v>2.71</v>
+      </c>
+      <c r="E11">
+        <v>2.95</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3.24</v>
+      </c>
+      <c r="H11">
+        <v>3.08</v>
+      </c>
+      <c r="I11">
+        <v>3.13</v>
+      </c>
+      <c r="J11" s="7">
+        <v>44908</v>
+      </c>
+      <c r="K11">
+        <v>2.81</v>
+      </c>
+      <c r="L11">
+        <v>2.23</v>
+      </c>
+      <c r="M11" s="7">
+        <v>44908</v>
+      </c>
+      <c r="N11">
+        <v>2.46</v>
+      </c>
+      <c r="O11">
+        <v>1.71</v>
+      </c>
+      <c r="P11">
+        <v>1.6</v>
+      </c>
+      <c r="Q11">
+        <v>1.93</v>
+      </c>
+      <c r="R11">
+        <v>2.17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="19">
+        <v>19</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44918</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12">
+        <v>1.85</v>
+      </c>
+      <c r="D12">
+        <v>1.66</v>
+      </c>
+      <c r="E12">
+        <v>2.85</v>
+      </c>
+      <c r="F12">
+        <v>3.32</v>
+      </c>
+      <c r="G12">
+        <v>4.16</v>
+      </c>
+      <c r="H12">
+        <v>6.11</v>
+      </c>
+      <c r="I12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J12" s="7">
+        <v>44916</v>
+      </c>
+      <c r="K12">
+        <v>2.65</v>
+      </c>
+      <c r="L12">
+        <v>2.38</v>
+      </c>
+      <c r="M12" s="7">
+        <v>44916</v>
+      </c>
+      <c r="N12">
+        <v>2.36</v>
+      </c>
+      <c r="O12">
+        <v>1.47</v>
+      </c>
+      <c r="P12">
+        <v>1.52</v>
+      </c>
+      <c r="Q12">
+        <v>2.11</v>
+      </c>
+      <c r="R12">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="S12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="19">
+        <v>20</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W12" t="s">
+        <v>304</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44918</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13">
+        <v>2.99</v>
+      </c>
+      <c r="D13">
+        <v>3.6</v>
+      </c>
+      <c r="E13">
+        <v>2.61</v>
+      </c>
+      <c r="F13">
+        <v>2.8</v>
+      </c>
+      <c r="G13">
+        <v>2.42</v>
+      </c>
+      <c r="H13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I13">
+        <v>2.34</v>
+      </c>
+      <c r="J13" s="7">
+        <v>44916</v>
+      </c>
+      <c r="K13">
+        <v>2.48</v>
+      </c>
+      <c r="L13">
+        <v>2.48</v>
+      </c>
+      <c r="M13" s="7">
+        <v>44916</v>
+      </c>
+      <c r="N13">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O13">
+        <v>1.43</v>
+      </c>
+      <c r="P13">
+        <v>1.48</v>
+      </c>
+      <c r="Q13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R13">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="19">
+        <v>16</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D14">
+        <v>2.19</v>
+      </c>
+      <c r="E14">
+        <v>3.37</v>
+      </c>
+      <c r="F14">
+        <v>3.14</v>
+      </c>
+      <c r="G14">
+        <v>4.08</v>
+      </c>
+      <c r="H14">
+        <v>3.95</v>
+      </c>
+      <c r="I14">
+        <v>3.04</v>
+      </c>
+      <c r="J14" s="7">
+        <v>44914</v>
+      </c>
+      <c r="K14">
+        <v>2.9</v>
+      </c>
+      <c r="L14">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M14" s="7">
+        <v>44914</v>
+      </c>
+      <c r="N14">
+        <v>2.38</v>
+      </c>
+      <c r="O14">
+        <v>1.69</v>
+      </c>
+      <c r="P14">
+        <v>1.63</v>
+      </c>
+      <c r="Q14">
+        <v>1.96</v>
+      </c>
+      <c r="R14">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="19">
+        <v>21</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D15">
+        <v>2.52</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2.97</v>
+      </c>
+      <c r="G15">
+        <v>3.59</v>
+      </c>
+      <c r="H15">
+        <v>3.36</v>
+      </c>
+      <c r="I15">
+        <v>3.07</v>
+      </c>
+      <c r="J15" s="7">
+        <v>44914</v>
+      </c>
+      <c r="K15">
+        <v>2.79</v>
+      </c>
+      <c r="L15">
+        <v>2.27</v>
+      </c>
+      <c r="M15" s="7">
+        <v>44914</v>
+      </c>
+      <c r="N15">
+        <v>2.46</v>
+      </c>
+      <c r="O15">
+        <v>1.69</v>
+      </c>
+      <c r="P15">
+        <v>1.59</v>
+      </c>
+      <c r="Q15">
+        <v>1.96</v>
+      </c>
+      <c r="R15">
+        <v>2.14</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="19">
+        <v>25</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>1.92</v>
+      </c>
+      <c r="D16">
+        <v>2.12</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <v>3.35</v>
+      </c>
+      <c r="G16">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H16">
+        <v>3.78</v>
+      </c>
+      <c r="I16">
+        <v>2.94</v>
+      </c>
+      <c r="J16" s="7">
+        <v>44913</v>
+      </c>
+      <c r="K16">
+        <v>3.04</v>
+      </c>
+      <c r="L16">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M16" s="7">
+        <v>44913</v>
+      </c>
+      <c r="N16">
+        <v>2.23</v>
+      </c>
+      <c r="O16">
+        <v>1.68</v>
+      </c>
+      <c r="P16">
+        <v>1.69</v>
+      </c>
+      <c r="Q16">
+        <v>1.94</v>
+      </c>
+      <c r="R16">
+        <v>1.96</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="19">
+        <v>24</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17">
+        <v>2.65</v>
+      </c>
+      <c r="D17">
+        <v>3.15</v>
+      </c>
+      <c r="E17">
+        <v>3.01</v>
+      </c>
+      <c r="F17">
+        <v>3.03</v>
+      </c>
+      <c r="G17">
+        <v>3.05</v>
+      </c>
+      <c r="H17">
+        <v>2.63</v>
+      </c>
+      <c r="I17">
+        <v>3.33</v>
+      </c>
+      <c r="J17" s="7">
+        <v>44914</v>
+      </c>
+      <c r="K17">
+        <v>3.02</v>
+      </c>
+      <c r="L17">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M17" s="7">
+        <v>44914</v>
+      </c>
+      <c r="N17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O17">
+        <v>1.79</v>
+      </c>
+      <c r="P17">
+        <v>1.67</v>
+      </c>
+      <c r="Q17">
+        <v>1.81</v>
+      </c>
+      <c r="R17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="19">
+        <v>24</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18">
+        <v>3.29</v>
+      </c>
+      <c r="D18">
+        <v>3.04</v>
+      </c>
+      <c r="E18">
+        <v>3.26</v>
+      </c>
+      <c r="F18">
+        <v>3.33</v>
+      </c>
+      <c r="G18">
+        <v>2.33</v>
+      </c>
+      <c r="H18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I18">
+        <v>3.24</v>
+      </c>
+      <c r="J18" s="7">
+        <v>44916</v>
+      </c>
+      <c r="K18">
+        <v>3.2</v>
+      </c>
+      <c r="L18">
+        <v>2.11</v>
+      </c>
+      <c r="M18" s="7">
+        <v>44916</v>
+      </c>
+      <c r="N18">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O18">
+        <v>1.77</v>
+      </c>
+      <c r="P18">
+        <v>1.75</v>
+      </c>
+      <c r="Q18">
+        <v>1.85</v>
+      </c>
+      <c r="R18">
+        <v>1.92</v>
+      </c>
+      <c r="S18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="19">
+        <v>23</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>44925</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19">
+        <v>2.37</v>
+      </c>
+      <c r="D19">
+        <v>1.94</v>
+      </c>
+      <c r="E19">
+        <v>3.31</v>
+      </c>
+      <c r="F19">
+        <v>3.55</v>
+      </c>
+      <c r="G19">
+        <v>3.18</v>
+      </c>
+      <c r="H19">
+        <v>4.29</v>
+      </c>
+      <c r="I19">
+        <v>3.28</v>
+      </c>
+      <c r="J19" s="7">
+        <v>44922</v>
+      </c>
+      <c r="K19">
+        <v>3.3</v>
+      </c>
+      <c r="L19">
+        <v>2.08</v>
+      </c>
+      <c r="M19" s="7">
+        <v>44922</v>
+      </c>
+      <c r="N19">
+        <v>2.12</v>
+      </c>
+      <c r="O19">
+        <v>1.79</v>
+      </c>
+      <c r="P19">
+        <v>1.79</v>
+      </c>
+      <c r="Q19">
+        <v>1.83</v>
+      </c>
+      <c r="R19">
+        <v>1.87</v>
+      </c>
+      <c r="S19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="19">
+        <v>21</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44903</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D2" s="16">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="44">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <f>H2-D$22</f>
+        <v>-19818.12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44903</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="16">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3:I7" si="0">H3-D$22</f>
+        <v>-19818.12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44912</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D4" s="16">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="44">
+        <f t="shared" ref="H4:H9" si="1">C4*D$22</f>
+        <v>33690.803999999996</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="0"/>
+        <v>13872.683999999997</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44913</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="44">
+        <f t="shared" si="1"/>
+        <v>33690.803999999996</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(H5-D$22)/2</f>
+        <v>6936.3419999999987</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44914</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="0"/>
+        <v>-19818.12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44918</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="19">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="44">
+        <f t="shared" si="1"/>
+        <v>33690.803999999996</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>13872.683999999997</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D8" s="19">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="44">
+        <f t="shared" si="1"/>
+        <v>33690.803999999996</v>
+      </c>
+      <c r="I8" s="18">
+        <f>(H8-D$22)/2</f>
+        <v>6936.3419999999987</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="44">
+        <f t="shared" si="1"/>
+        <v>33690.803999999996</v>
+      </c>
+      <c r="I9" s="18">
+        <f>(H9-D$22)/2</f>
+        <v>6936.3419999999987</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <f>COUNT(D2:D9)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="30">
+        <f>D11-D12</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <f>D13/D11*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <f>1/D16*100</f>
+        <v>58.823529411764717</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <f>SUM(C2:C9)/COUNT(D2:D9)</f>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="30">
+        <f>D14-D15</f>
+        <v>28.676470588235283</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="30">
+        <f>D25/1</f>
+        <v>-2.2000000000000011</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="31">
+        <v>495453</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="18">
+        <f>D20/100</f>
+        <v>4954.53</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="18">
+        <f>D21*4</f>
+        <v>19818.12</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="32">
+        <f>D21*7</f>
+        <v>34681.71</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="18">
+        <f>SUM(I2:I9)</f>
+        <v>-10899.966000000006</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <f>D24/D20*100</f>
+        <v>-2.2000000000000011</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F12:G26">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19214,29 +21258,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G44">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21177,21 +23221,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F11:G41">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24209,21 +26253,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G41">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/GENESIS-MATRIZ-2022.xlsx
+++ b/tecnica_analise/GENESIS-MATRIZ-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="maioGENESIS2023" sheetId="10" r:id="rId1"/>
@@ -2864,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -13184,8 +13184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13258,7 +13258,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="44">
         <f>C2*D$25</f>
-        <v>39636.239999999998</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I2" s="18">
         <v>0</v>
@@ -13292,11 +13292,11 @@
       <c r="G3" s="17"/>
       <c r="H3" s="44">
         <f t="shared" ref="H3:H10" si="0">C3*D$25</f>
-        <v>39636.239999999998</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" ref="I3:I10" si="1">H3-D$25</f>
-        <v>19818.12</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>32</v>
@@ -13327,11 +13327,11 @@
       <c r="G4" s="17"/>
       <c r="H4" s="44">
         <f t="shared" si="0"/>
-        <v>35474.434799999995</v>
+        <v>44343.0435</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="1"/>
-        <v>15656.314799999996</v>
+        <v>19570.393500000002</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>152</v>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I5" s="18">
         <f>H5-D$25/2</f>
-        <v>-9909.06</v>
+        <v>-12386.324999999999</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>31</v>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="I6" s="18">
         <f>H6-D$25/2</f>
-        <v>-9909.06</v>
+        <v>-12386.324999999999</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>153</v>
@@ -13430,11 +13430,11 @@
       <c r="G7" s="17"/>
       <c r="H7" s="44">
         <f t="shared" si="0"/>
-        <v>29330.817599999998</v>
+        <v>36663.521999999997</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="1"/>
-        <v>9512.6975999999995</v>
+        <v>11890.871999999999</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>155</v>
@@ -13465,7 +13465,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="44">
         <f t="shared" si="0"/>
-        <v>39636.239999999998</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I8" s="18">
         <v>0</v>
@@ -13499,11 +13499,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="44">
         <f t="shared" si="0"/>
-        <v>31312.6296</v>
+        <v>39140.786999999997</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="1"/>
-        <v>11494.509600000001</v>
+        <v>14368.136999999999</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>149</v>
@@ -13534,11 +13534,11 @@
       <c r="G10" s="9"/>
       <c r="H10" s="44">
         <f t="shared" si="0"/>
-        <v>31907.173200000001</v>
+        <v>39883.966500000002</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="1"/>
-        <v>12089.053200000002</v>
+        <v>15111.316500000004</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>199</v>
@@ -13719,7 +13719,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="30">
         <f>D28/1</f>
-        <v>9.84</v>
+        <v>12.300000000000002</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="39"/>
@@ -13784,8 +13784,8 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="18">
-        <f>D24*4</f>
-        <v>19818.12</v>
+        <f>D24*5</f>
+        <v>24772.649999999998</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="39"/>
@@ -13821,7 +13821,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="18">
         <f>SUM(I2:I12)</f>
-        <v>48752.575199999999</v>
+        <v>60940.719000000012</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="39"/>
@@ -13839,7 +13839,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9">
         <f>D27/D23*100</f>
-        <v>9.84</v>
+        <v>12.300000000000002</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="39"/>
@@ -19166,7 +19166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
